--- a/HaaS/data/rubin2bai.xlsx
+++ b/HaaS/data/rubin2bai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katonobuhito/Main/univ_lecture/3A/Thu345_oupro/brainwave2021-1/HaaS/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF89153-3B31-5A42-A550-5A3CE403F337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386910E1-2E85-544A-8BD9-BB699F57C8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7700" yWindow="-21100" windowWidth="20120" windowHeight="17500" xr2:uid="{7005E16A-D4FB-594A-9C6E-222627EA5B6A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{7005E16A-D4FB-594A-9C6E-222627EA5B6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="1">
   <si>
     <t>a</t>
     <phoneticPr fontId="1"/>
@@ -416,7 +416,7 @@
   <dimension ref="A1:AZ27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+      <selection activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1831,7 +1831,9 @@
       <c r="AZ13" s="2"/>
     </row>
     <row r="14" spans="1:52">
-      <c r="A14" s="2"/>
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
@@ -1953,7 +1955,9 @@
       <c r="AZ14" s="2"/>
     </row>
     <row r="15" spans="1:52">
-      <c r="A15" s="2"/>
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
       <c r="B15">
         <v>1</v>
       </c>
@@ -2075,7 +2079,9 @@
       <c r="AZ15" s="2"/>
     </row>
     <row r="16" spans="1:52">
-      <c r="A16" s="2"/>
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
       <c r="B16">
         <v>1</v>
       </c>
@@ -2197,7 +2203,9 @@
       <c r="AZ16" s="2"/>
     </row>
     <row r="17" spans="1:52">
-      <c r="A17" s="2"/>
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
       <c r="B17">
         <v>1</v>
       </c>
@@ -2319,6 +2327,9 @@
       <c r="AZ17" s="2"/>
     </row>
     <row r="18" spans="1:52">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
       <c r="B18">
         <v>1</v>
       </c>
@@ -2423,6 +2434,9 @@
       </c>
     </row>
     <row r="19" spans="1:52">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
       <c r="B19">
         <v>1</v>
       </c>
@@ -2475,10 +2489,10 @@
         <v>1</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -2527,6 +2541,9 @@
       </c>
     </row>
     <row r="20" spans="1:52">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
       <c r="B20">
         <v>1</v>
       </c>
@@ -2631,6 +2648,9 @@
       </c>
     </row>
     <row r="21" spans="1:52">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
       <c r="B21">
         <v>1</v>
       </c>
@@ -2735,6 +2755,9 @@
       </c>
     </row>
     <row r="22" spans="1:52">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
       <c r="B22">
         <v>1</v>
       </c>
@@ -2839,6 +2862,9 @@
       </c>
     </row>
     <row r="23" spans="1:52">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
       <c r="B23">
         <v>1</v>
       </c>
@@ -2906,7 +2932,7 @@
         <v>1</v>
       </c>
       <c r="X23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2943,6 +2969,9 @@
       </c>
     </row>
     <row r="24" spans="1:52">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
       <c r="B24">
         <v>1</v>
       </c>
@@ -3047,6 +3076,9 @@
       </c>
     </row>
     <row r="25" spans="1:52">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
       <c r="B25">
         <v>1</v>
       </c>
@@ -3154,7 +3186,7 @@
     <row r="27" spans="1:52" s="2" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="AJ1:AZ1 B2:AZ13 A14:AZ1048576">
+  <conditionalFormatting sqref="AJ1:AZ1 A26:AZ1048576 B2:AZ25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
